--- a/it-professional-2-zb0136/config.xlsx
+++ b/it-professional-2-zb0136/config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\canvas-course-scaffolder-with-course-configs\it-professional-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\canvas-course-scaffolder-with-course-configs\it-professional-2-zb0136\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D7F5FB-248E-44A4-B09D-E104C423FAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE595CEB-B9E8-4C8A-A146-4A7224FB6DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,13 +123,13 @@
     <t>Toets (indien toets)</t>
   </si>
   <si>
-    <t>Patrick Dielens, Karen Verswijvel</t>
-  </si>
-  <si>
-    <t>patrick.dielens@thomasmore.be,karen.verswijvel@thomasmore.be</t>
-  </si>
-  <si>
-    <t>IT-professional 1</t>
+    <t>Mieke Smaers, Karen Verswijvel</t>
+  </si>
+  <si>
+    <t>mieke.smaers@thomasmore.be,karen.verswijvel@thomasmore.be</t>
+  </si>
+  <si>
+    <t>IT-professional 2</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B1">
-        <v>37594</v>
+        <v>37218</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
